--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2543181357329645</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601267639178924</v>
+        <v>-1.601046489492382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1505306457961909</v>
+        <v>0.1506581413450162</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2449180481437875</v>
+        <v>-0.2449825829277608</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2830946819768656</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.534311226787475</v>
+        <v>-1.533840595070206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09955288851462547</v>
+        <v>0.09951196401747166</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2482833010251283</v>
+        <v>-0.2483730201150424</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3224509708586603</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490459841077599</v>
+        <v>-1.489649221230129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09541007018736207</v>
+        <v>0.09533923932690354</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2581555489539262</v>
+        <v>-0.2581854553172309</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3421780250848912</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.559870936288716</v>
+        <v>-1.559143739454675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1225508818959498</v>
+        <v>0.1222266339569619</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354377309761934</v>
+        <v>-0.2354141206893739</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3374454452381849</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.59377137311373</v>
+        <v>-1.593266112975792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079707427753415</v>
+        <v>0.1074465944079484</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2611493333226401</v>
+        <v>-0.2611005387298798</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3204090021084778</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.480349129251924</v>
+        <v>-1.479932014184779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1214349023389476</v>
+        <v>0.1206368746444482</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530006363316665</v>
+        <v>-0.252929805471208</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3051348375242302</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264957991664456</v>
+        <v>-1.26492651128203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1586274001561616</v>
+        <v>0.1576011396890735</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2589582987057896</v>
+        <v>-0.2588213590422364</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2949236956793262</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006583539912508</v>
+        <v>-1.006801541560808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1807234805809806</v>
+        <v>0.1794438030353632</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2561392304595401</v>
+        <v>-0.2559582182605905</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.287576222900555</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5933980115041532</v>
+        <v>-0.5938324407816322</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1698690447204911</v>
+        <v>0.1685122402379299</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1648020488887037</v>
+        <v>-0.1645265955424761</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2817809235695656</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.219516527564237</v>
+        <v>-0.2201445611936359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1397013942416421</v>
+        <v>0.1384169946386608</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1288231198140126</v>
+        <v>-0.1286169233091222</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2770812356462121</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2420535616233407</v>
+        <v>0.2413310868466636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1040435650676963</v>
+        <v>0.1029559178548776</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03872311727251865</v>
+        <v>-0.0386066398575424</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2703168689333362</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7674280899119629</v>
+        <v>0.7662617417430791</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005649827495748593</v>
+        <v>-0.006334525813514393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05514508704536917</v>
+        <v>0.0551986036954934</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2531756945108817</v>
       </c>
       <c r="E14" t="n">
-        <v>1.312734422333616</v>
+        <v>1.311372895793691</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2296170082656235</v>
+        <v>-0.2304480903616702</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1592019171354364</v>
+        <v>0.1591153460837648</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2183639991080509</v>
       </c>
       <c r="E15" t="n">
-        <v>1.874308242373911</v>
+        <v>1.872929401623652</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4413477643865068</v>
+        <v>-0.4422386592091629</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2928125302470452</v>
+        <v>0.2927086449850394</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1636477848239039</v>
       </c>
       <c r="E16" t="n">
-        <v>2.346672954695369</v>
+        <v>2.345190228683104</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6662719487821325</v>
+        <v>-0.6670447921706911</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4370241621406142</v>
+        <v>0.4368746303240907</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.08759823853308496</v>
       </c>
       <c r="E17" t="n">
-        <v>2.802286955527945</v>
+        <v>2.8007318246361</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8801622591374403</v>
+        <v>-0.8806683062849385</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5562167601011089</v>
+        <v>0.5558799200091504</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.007673680308110181</v>
       </c>
       <c r="E18" t="n">
-        <v>3.225394313467419</v>
+        <v>3.224124080036529</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.208233490571021</v>
+        <v>-1.208660049752894</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6777310362655219</v>
+        <v>0.6773721599058654</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1112007364277419</v>
       </c>
       <c r="E19" t="n">
-        <v>3.599674024245024</v>
+        <v>3.598499805980534</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507629241652747</v>
+        <v>-1.507714238685297</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8386870835714877</v>
+        <v>0.8383203371162246</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.213463335447285</v>
       </c>
       <c r="E20" t="n">
-        <v>3.725439726056071</v>
+        <v>3.724114401955935</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.843340761901121</v>
+        <v>-1.843329743767272</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014800935015579</v>
+        <v>1.014352339566008</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3136572287581523</v>
       </c>
       <c r="E21" t="n">
-        <v>3.975475811512927</v>
+        <v>3.974307889324922</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.080066154658699</v>
+        <v>-2.079785192245546</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182498506218076</v>
+        <v>1.182008986271351</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4151342278978637</v>
       </c>
       <c r="E22" t="n">
-        <v>4.180487080004978</v>
+        <v>4.179108239254719</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375331679566131</v>
+        <v>-2.375281310954249</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322781386384878</v>
+        <v>1.322206869405603</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5189685154245137</v>
       </c>
       <c r="E23" t="n">
-        <v>4.405376635979935</v>
+        <v>4.404107976568167</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507551646784071</v>
+        <v>-2.507483963961854</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493650606116796</v>
+        <v>1.493030442583003</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6221396843517838</v>
       </c>
       <c r="E24" t="n">
-        <v>4.533106713654364</v>
+        <v>4.531949809600208</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622372406635153</v>
+        <v>-2.622448746562536</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59753429410352</v>
+        <v>1.596848021766633</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.718864186320067</v>
       </c>
       <c r="E25" t="n">
-        <v>4.673808282907433</v>
+        <v>4.672857575358167</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817974188820068</v>
+        <v>-2.818240985061128</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660720143689893</v>
+        <v>1.660035445372127</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8009369103446163</v>
       </c>
       <c r="E26" t="n">
-        <v>4.786733136726908</v>
+        <v>4.785897332573498</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907873503923596</v>
+        <v>-2.908127708011686</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703717624026464</v>
+        <v>1.703108478626521</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8611960061535029</v>
       </c>
       <c r="E27" t="n">
-        <v>4.896179408288309</v>
+        <v>4.895579707003093</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980235884987152</v>
+        <v>-2.980640407901327</v>
       </c>
       <c r="G27" t="n">
-        <v>1.753935130072441</v>
+        <v>1.75335274299756</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8974166348545238</v>
       </c>
       <c r="E28" t="n">
-        <v>4.895384528632052</v>
+        <v>4.894710848448136</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069030238667527</v>
+        <v>-3.069439483639066</v>
       </c>
       <c r="G28" t="n">
-        <v>1.794746297849525</v>
+        <v>1.794115116181884</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9110176496135609</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903797660835404</v>
+        <v>4.903108240460274</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.082528239642242</v>
+        <v>-3.082898134135747</v>
       </c>
       <c r="G29" t="n">
-        <v>1.726153692581484</v>
+        <v>1.725454828091627</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9052026962274178</v>
       </c>
       <c r="E30" t="n">
-        <v>4.845425161721968</v>
+        <v>4.844661762448138</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072194804110902</v>
+        <v>-3.072576503747818</v>
       </c>
       <c r="G30" t="n">
-        <v>1.689941808676841</v>
+        <v>1.689327941219533</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8817620773828886</v>
       </c>
       <c r="E31" t="n">
-        <v>4.719862508377569</v>
+        <v>4.719166791925955</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.060391234720269</v>
+        <v>-3.060763490242456</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631169508706594</v>
+        <v>1.630555641249287</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8431234576524386</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638990979944261</v>
+        <v>4.638288967416162</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021436622496759</v>
+        <v>-3.021747491273215</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593520545344203</v>
+        <v>1.593016859225387</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7930488201487655</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560209748904041</v>
+        <v>4.559789485798654</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952280518383291</v>
+        <v>-2.952624441561296</v>
       </c>
       <c r="G33" t="n">
-        <v>1.563924263806386</v>
+        <v>1.563546499217274</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7365045236973394</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357845980574018</v>
+        <v>4.357189614600435</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.879913415262371</v>
+        <v>-2.880314003128742</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513404546089119</v>
+        <v>1.513138536857619</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6767324923734627</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132931240293121</v>
+        <v>4.132397647811</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.847992307482393</v>
+        <v>-2.84843696788416</v>
       </c>
       <c r="G35" t="n">
-        <v>1.392485249152558</v>
+        <v>1.392242850207877</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.614569847780433</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981427177810565</v>
+        <v>3.980964416188903</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.822614397189662</v>
+        <v>-2.823078732830446</v>
       </c>
       <c r="G36" t="n">
-        <v>1.365830809352452</v>
+        <v>1.365657667249109</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5499967823395804</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785255600703739</v>
+        <v>3.784895150324961</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.758846947537968</v>
+        <v>-2.759345124589859</v>
       </c>
       <c r="G37" t="n">
-        <v>1.278888289168287</v>
+        <v>1.278700980892852</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4824165720227044</v>
       </c>
       <c r="E38" t="n">
-        <v>3.714827689140261</v>
+        <v>3.71466871320901</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.727362630064151</v>
+        <v>-2.727940295081668</v>
       </c>
       <c r="G38" t="n">
-        <v>1.235486285917542</v>
+        <v>1.235404436923234</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.412146597993222</v>
       </c>
       <c r="E39" t="n">
-        <v>3.504387628698844</v>
+        <v>3.504318371857507</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.744543048773148</v>
+        <v>-2.745108121637695</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160251319957612</v>
+        <v>1.160126972447029</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3404617137347211</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25845658511034</v>
+        <v>3.258336959657121</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.709546307630148</v>
+        <v>-2.710102723389528</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096117910860215</v>
+        <v>1.095991989330511</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2698014214233846</v>
       </c>
       <c r="E41" t="n">
-        <v>3.086276207450379</v>
+        <v>3.086240005010589</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.648844260217187</v>
+        <v>-2.649279476504227</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064086621741746</v>
+        <v>1.063998476670953</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.202501551537863</v>
       </c>
       <c r="E42" t="n">
-        <v>2.971632524750443</v>
+        <v>2.971763168337511</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.617890387187249</v>
+        <v>-2.618408239478156</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9800513148746237</v>
+        <v>0.9799395595170114</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1390000086127552</v>
       </c>
       <c r="E43" t="n">
-        <v>2.837858213650219</v>
+        <v>2.838144685130296</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.600873666466867</v>
+        <v>-2.601448183446142</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9279717442081479</v>
+        <v>0.9278505447358077</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.07946729273567534</v>
       </c>
       <c r="E44" t="n">
-        <v>2.708651706040009</v>
+        <v>2.708957065749542</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.52930931309781</v>
+        <v>-2.529845266608613</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8638084287474467</v>
+        <v>0.8637989846327189</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.02309784139036761</v>
       </c>
       <c r="E45" t="n">
-        <v>2.512070883961645</v>
+        <v>2.512437630416908</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.463984371525589</v>
+        <v>-2.464483335587041</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8336990169760857</v>
+        <v>0.833684850803994</v>
       </c>
     </row>
     <row r="46">
@@ -1491,10 +1491,10 @@
         <v>-0.03110605287321486</v>
       </c>
       <c r="E46" t="n">
-        <v>2.385875474930484</v>
+        <v>2.386303608131478</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.424227009550215</v>
+        <v>-2.424909346839299</v>
       </c>
       <c r="G46" t="n">
         <v>0.7704155782041916</v>
@@ -1514,13 +1514,13 @@
         <v>-0.0835105953488653</v>
       </c>
       <c r="E47" t="n">
-        <v>2.22279135377252</v>
+        <v>2.223169118361632</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.289516944082378</v>
+        <v>-2.290045027497575</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7140861559102039</v>
+        <v>0.7141144882543873</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.134498209847178</v>
       </c>
       <c r="E48" t="n">
-        <v>2.13446369676161</v>
+        <v>2.134979975033397</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.248346112936077</v>
+        <v>-2.249068587712753</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6653387837235216</v>
+        <v>0.665382856258918</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1842444365783641</v>
       </c>
       <c r="E49" t="n">
-        <v>1.981062941237888</v>
+        <v>1.981612273911222</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.196419222124367</v>
+        <v>-2.197153502044454</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5908986974198481</v>
+        <v>0.591018322873067</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2331835109081213</v>
       </c>
       <c r="E50" t="n">
-        <v>1.887701571077059</v>
+        <v>1.888164332698721</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.14898615590397</v>
+        <v>-2.149721222833618</v>
       </c>
       <c r="G50" t="n">
-        <v>0.534268637473692</v>
+        <v>0.5343725227356979</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2816335237013134</v>
       </c>
       <c r="E51" t="n">
-        <v>1.763777471637934</v>
+        <v>1.76418356857123</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.09888591428253</v>
+        <v>-2.099638295422512</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4892941891207675</v>
+        <v>0.4894626091667467</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3293015358124852</v>
       </c>
       <c r="E52" t="n">
-        <v>1.652116555172864</v>
+        <v>1.65236682421315</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.981342101351598</v>
+        <v>-1.981954394789784</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4536709883674903</v>
+        <v>0.4538142241075287</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3752086804666535</v>
       </c>
       <c r="E53" t="n">
-        <v>1.608464282881832</v>
+        <v>1.60888612000634</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.921775708734656</v>
+        <v>-1.92236124384778</v>
       </c>
       <c r="G53" t="n">
-        <v>0.382665411786495</v>
+        <v>0.3827299465704683</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4184814018455876</v>
       </c>
       <c r="E54" t="n">
-        <v>1.564646738583063</v>
+        <v>1.565203941352004</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.911210892392486</v>
+        <v>-1.911829481907157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3483502209230187</v>
+        <v>0.3484525321659032</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4593408593673048</v>
       </c>
       <c r="E55" t="n">
-        <v>1.509340428717921</v>
+        <v>1.509914945697196</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.846370748709625</v>
+        <v>-1.846990912243417</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3213494969162267</v>
+        <v>0.3215116208857207</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4982553060037284</v>
       </c>
       <c r="E56" t="n">
-        <v>1.451249679027198</v>
+        <v>1.45205085475994</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.784833684152814</v>
+        <v>-1.785408988141649</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2144295260445136</v>
+        <v>0.2144452662357266</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5359511742803867</v>
       </c>
       <c r="E57" t="n">
-        <v>1.460501763422203</v>
+        <v>1.461214794084152</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.78248131257603</v>
+        <v>-1.782987359723528</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2150559856547913</v>
+        <v>0.2150638557503977</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5728086489672055</v>
       </c>
       <c r="E58" t="n">
-        <v>1.445147206893915</v>
+        <v>1.445913754205988</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.767697337979213</v>
+        <v>-1.768234078499577</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2104929042221406</v>
+        <v>0.2104976262795045</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6085765536615132</v>
       </c>
       <c r="E59" t="n">
-        <v>1.433118552768935</v>
+        <v>1.433993707400378</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.731502768284904</v>
+        <v>-1.731902569141714</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1367910328863572</v>
+        <v>0.1366997397773217</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6430951843092833</v>
       </c>
       <c r="E60" t="n">
-        <v>1.465393814851206</v>
+        <v>1.466552292924483</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.763683589219897</v>
+        <v>-1.764133758688589</v>
       </c>
       <c r="G60" t="n">
-        <v>0.116516092584883</v>
+        <v>0.1164295215332115</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6762893558892312</v>
       </c>
       <c r="E61" t="n">
-        <v>1.462669187752234</v>
+        <v>1.463885904532999</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.782032717126459</v>
+        <v>-1.782502561834168</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1286722422586882</v>
+        <v>0.1286423358953835</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7074969413482629</v>
       </c>
       <c r="E62" t="n">
-        <v>1.472889293906839</v>
+        <v>1.474176841548063</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.825698368580022</v>
+        <v>-1.826161130201685</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0414778790151153</v>
+        <v>0.04132834719859173</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.735493591693293</v>
       </c>
       <c r="E63" t="n">
-        <v>1.459059961907092</v>
+        <v>1.460375841892499</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.786928703603265</v>
+        <v>-1.787202582930371</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007305923891677368</v>
+        <v>0.007180002361973313</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7585389147416279</v>
       </c>
       <c r="E64" t="n">
-        <v>1.460270382611372</v>
+        <v>1.461620891017448</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.814422882604585</v>
+        <v>-1.814714076142026</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02292940940938754</v>
+        <v>-0.02300811036545258</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7762309418408886</v>
       </c>
       <c r="E65" t="n">
-        <v>1.469870325232185</v>
+        <v>1.471286942441355</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.839888937968109</v>
+        <v>-1.840177770476867</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02613411234035574</v>
+        <v>-0.026250589755332</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7886395892506873</v>
       </c>
       <c r="E66" t="n">
-        <v>1.433579740371476</v>
+        <v>1.434895620356883</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.845338979175612</v>
+        <v>-1.845541240632699</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03448270975973459</v>
+        <v>-0.03464955578659246</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7959245758496166</v>
       </c>
       <c r="E67" t="n">
-        <v>1.398836416307006</v>
+        <v>1.400219979114629</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.857307033564422</v>
+        <v>-1.857440825189733</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05353306318483682</v>
+        <v>-0.05367944696311778</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7978764303504129</v>
       </c>
       <c r="E68" t="n">
-        <v>1.348675574949396</v>
+        <v>1.350100062254173</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.887378668876872</v>
+        <v>-1.887463665909422</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06079873544876079</v>
+        <v>-0.06084595602239981</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7940499260100642</v>
       </c>
       <c r="E69" t="n">
-        <v>1.245314461310943</v>
+        <v>1.246642933449321</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.908853798758338</v>
+        <v>-1.908924629618796</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08307897611077203</v>
+        <v>-0.08318286137277787</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7836702220255448</v>
       </c>
       <c r="E70" t="n">
-        <v>1.261452879361639</v>
+        <v>1.262998566138757</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914331385300464</v>
+        <v>-1.914167687311849</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05207237344026978</v>
+        <v>-0.05214635233897091</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.766283834097548</v>
       </c>
       <c r="E71" t="n">
-        <v>1.25426590805378</v>
+        <v>1.255866685500143</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.948957444940397</v>
+        <v>-1.948784302837054</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07182788743171471</v>
+        <v>-0.07179640704928869</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7419427804580272</v>
       </c>
       <c r="E72" t="n">
-        <v>1.237850462637736</v>
+        <v>1.239607067977107</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978443545139723</v>
+        <v>-1.978170452822177</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1067097251788593</v>
+        <v>-0.1067286134083149</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7113365154470165</v>
       </c>
       <c r="E73" t="n">
-        <v>1.242597704307578</v>
+        <v>1.244502267444352</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978257023873849</v>
+        <v>-1.97794379406871</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09410655407460465</v>
+        <v>-0.09410183201724075</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6749433665510078</v>
       </c>
       <c r="E74" t="n">
-        <v>1.237101229535996</v>
+        <v>1.239309578363181</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986427757132521</v>
+        <v>-1.986045270486045</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07518369619832778</v>
+        <v>-0.07513490160556746</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6334569511893892</v>
       </c>
       <c r="E75" t="n">
-        <v>1.181798067709097</v>
+        <v>1.184026878784858</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019166567846014</v>
+        <v>-2.018770702037007</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0473125396174565</v>
+        <v>-0.04720393229808675</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5879278683434045</v>
       </c>
       <c r="E76" t="n">
-        <v>1.217309513104762</v>
+        <v>1.219815351545872</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022720703021911</v>
+        <v>-2.022262663457613</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02753341533919205</v>
+        <v>-0.02734453304463597</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.540265078603972</v>
       </c>
       <c r="E77" t="n">
-        <v>1.152541774301481</v>
+        <v>1.155286863649029</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.02023768785806</v>
+        <v>-2.019703308366378</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02906021388685372</v>
+        <v>-0.02892642226154317</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4923559701892469</v>
       </c>
       <c r="E78" t="n">
-        <v>1.172553853409698</v>
+        <v>1.175431160363436</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030902454414433</v>
+        <v>-2.030344464635931</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02387067284392536</v>
+        <v>-0.02365345820518586</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4452689925245448</v>
       </c>
       <c r="E79" t="n">
-        <v>1.158995252698814</v>
+        <v>1.162037831660288</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007753355197463</v>
+        <v>-2.007097776233441</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04538121815562055</v>
+        <v>-0.04523326035821829</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3998243529672954</v>
       </c>
       <c r="E80" t="n">
-        <v>1.138736052588553</v>
+        <v>1.141756595282329</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969723479207717</v>
+        <v>-1.969225302155825</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02906808398246023</v>
+        <v>-0.02884929532459943</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3564115857139263</v>
       </c>
       <c r="E81" t="n">
-        <v>1.163912488433757</v>
+        <v>1.16686849634356</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923114411997322</v>
+        <v>-1.922597346715975</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.009199240614281644</v>
+        <v>-0.008922213248932723</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3147117131215259</v>
       </c>
       <c r="E82" t="n">
-        <v>1.222872096679438</v>
+        <v>1.225966618271915</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950940709033236</v>
+        <v>-1.950566092482366</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01847988563379095</v>
+        <v>0.0188120036683854</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2746822345265577</v>
       </c>
       <c r="E83" t="n">
-        <v>1.310102662362801</v>
+        <v>1.313120057018335</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846395146006005</v>
+        <v>-1.846120479669338</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01116699279622796</v>
+        <v>0.01142513193212127</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2366193755950805</v>
       </c>
       <c r="E84" t="n">
-        <v>1.305243665335346</v>
+        <v>1.308048567409504</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785396395988679</v>
+        <v>-1.785287001659748</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02173810521488338</v>
+        <v>0.02197578210219978</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.20115472331985</v>
       </c>
       <c r="E85" t="n">
-        <v>1.414603365845075</v>
+        <v>1.41717531308928</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757086875082525</v>
+        <v>-1.757186038287167</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01570174188469524</v>
+        <v>0.01593469671464774</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1680202437665401</v>
       </c>
       <c r="E86" t="n">
-        <v>1.659643514610923</v>
+        <v>1.662034449656179</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652590893657615</v>
+        <v>-1.652881300185495</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03170794232920193</v>
+        <v>0.03194247117827573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1370092644300692</v>
       </c>
       <c r="E87" t="n">
-        <v>1.595262984511483</v>
+        <v>1.597112456979011</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53258688884009</v>
+        <v>-1.533018170079327</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05259832410710466</v>
+        <v>0.05282655687969326</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1086793788006556</v>
       </c>
       <c r="E88" t="n">
-        <v>1.742783204598026</v>
+        <v>1.74438555606351</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.332958765742888</v>
+        <v>-1.333409722221141</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0892965799202302</v>
+        <v>0.08951222053984839</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08520541360800961</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910370594462031</v>
+        <v>1.911661290141498</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15816787737025</v>
+        <v>-1.158635361049276</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1130201961164742</v>
+        <v>0.1132216705640006</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06919866456310708</v>
       </c>
       <c r="E90" t="n">
-        <v>1.932008635322552</v>
+        <v>1.932929436508513</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9180874628556197</v>
+        <v>-0.9185903619648753</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1418263200553981</v>
+        <v>0.1420230724455606</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.06273569036511877</v>
       </c>
       <c r="E91" t="n">
-        <v>1.970602010157724</v>
+        <v>1.97138429766101</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6661759336157331</v>
+        <v>-0.6668433177231646</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09523850210314029</v>
+        <v>0.09532349913569053</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06582595833461891</v>
       </c>
       <c r="E92" t="n">
-        <v>1.986247760223452</v>
+        <v>1.986872645814609</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4609096740260317</v>
+        <v>-0.4616557590895283</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1064156118834965</v>
+        <v>0.1065242192028662</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07628594463303739</v>
       </c>
       <c r="E93" t="n">
-        <v>1.959716093914808</v>
+        <v>1.96032366529563</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2404478338392935</v>
+        <v>-0.2411136439276037</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09166390467866643</v>
+        <v>0.09179769630397699</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08970361621390539</v>
       </c>
       <c r="E94" t="n">
-        <v>1.847309092386241</v>
+        <v>1.847888331422879</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05740987228060041</v>
+        <v>-0.05809771863660881</v>
       </c>
       <c r="G94" t="n">
-        <v>0.066419786011246</v>
+        <v>0.06653941146446485</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1003216597493306</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79616763711606</v>
+        <v>1.796584752183205</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07392628320072898</v>
+        <v>0.07316603196514075</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05386540949975172</v>
+        <v>0.05400392318242617</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1041880745986914</v>
       </c>
       <c r="E96" t="n">
-        <v>1.668289601644228</v>
+        <v>1.668681532405432</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1471528007618796</v>
+        <v>0.1464633803867499</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005495573621861126</v>
+        <v>-0.005396410417219183</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1027871034419961</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503145089456481</v>
+        <v>1.50328832519652</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1515915346839475</v>
+        <v>0.1508470236395723</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02073522675429439</v>
+        <v>-0.02060300914810513</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1017356350421733</v>
       </c>
       <c r="E98" t="n">
-        <v>1.389738585785888</v>
+        <v>1.389844045067015</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1795382441826412</v>
+        <v>0.1788692860560884</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05894139288562598</v>
+        <v>-0.05872103020864388</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1041694372047308</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250455207761112</v>
+        <v>1.250433171493413</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1826091554882989</v>
+        <v>0.1819590855912017</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09847288311709275</v>
+        <v>-0.09830131503287098</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.116999209886158</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091592605886476</v>
+        <v>1.091495016700955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2381263839156954</v>
+        <v>0.2376447340645774</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454762421173739</v>
+        <v>-0.1453581906832764</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.139241167219613</v>
       </c>
       <c r="E101" t="n">
-        <v>0.910493835885225</v>
+        <v>0.9101727359844797</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2202990433478438</v>
+        <v>0.2197843390951785</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1712114547506401</v>
+        <v>-0.171043034704661</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1756924493863397</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8503631574132962</v>
+        <v>0.8501191844494945</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2582612365153738</v>
+        <v>0.2578708797732913</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2091689258608062</v>
+        <v>-0.2090225420825253</v>
       </c>
     </row>
   </sheetData>
